--- a/biology/Médecine/Cavité_glénoïdale_de_la_scapula/Cavité_glénoïdale_de_la_scapula.xlsx
+++ b/biology/Médecine/Cavité_glénoïdale_de_la_scapula/Cavité_glénoïdale_de_la_scapula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_gl%C3%A9no%C3%AFdale_de_la_scapula</t>
+          <t>Cavité_glénoïdale_de_la_scapula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité glénoïdale de la scapula (ou cavité glénoïde de l’omoplate ou glène de l’omoplate) est la surface articulaire de l'omoplate qui répond à la surface articulaire de la tête humérale pour former une articulation synoviale de type énarthrose : l'articulation scapulo-humérale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_gl%C3%A9no%C3%AFdale_de_la_scapula</t>
+          <t>Cavité_glénoïdale_de_la_scapula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité glénoïdale de la scapula est située à l'angle supéro-latéral de la scapula au sommet du processus glénoïdal de la scapula. Elle est reliée au reste de la scapula par le col de la scapula.
 Elle a une forme de poire plus étroite en haut et à grand axe oblique en haut et en avant. Elle est légèrement concave dans sa partie inférieure. Elle regarde en dehors et en avant avec un angle d'environ 45°.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_gl%C3%A9no%C3%AFdale_de_la_scapula</t>
+          <t>Cavité_glénoïdale_de_la_scapula</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cavité glénoïdale de la scapula est peu profonde, ce qui permet à l'articulation de l'épaule d'être celle qui possède la plus grande mobilité (120° de flexion étendue à 180° grâce à la mobilité de la scapula[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité glénoïdale de la scapula est peu profonde, ce qui permet à l'articulation de l'épaule d'être celle qui possède la plus grande mobilité (120° de flexion étendue à 180° grâce à la mobilité de la scapula).
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_gl%C3%A9no%C3%AFdale_de_la_scapula</t>
+          <t>Cavité_glénoïdale_de_la_scapula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport à l'acétabulum, la cavité glénoïdale est peu profonde. Cela rend l'articulation scapulo-humérale sujette à la luxation.
 le labrum glénoïdal de la scapula peut subir une déchirure, notamment à la suite de mouvements répétitifs de type lancer sportif. Son traitement est chirurgical.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_gl%C3%A9no%C3%AFdale_de_la_scapula</t>
+          <t>Cavité_glénoïdale_de_la_scapula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orientation de la cavité glénoïdale reflète la posture des membres supérieurs.
-En particulier chez les primates fossiles d’apprécier leurs capacités arboricoles[2].
+En particulier chez les primates fossiles d’apprécier leurs capacités arboricoles.
 </t>
         </is>
       </c>
